--- a/data/evaluation/evaluation_Center_Winter_Peppers.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Peppers.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2005.368243439176</v>
+        <v>2023.30763737857</v>
       </c>
       <c r="C3" t="n">
-        <v>5990020.787637869</v>
+        <v>6023603.333092414</v>
       </c>
       <c r="D3" t="n">
-        <v>2447.451896899685</v>
+        <v>2454.303023893426</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1855465912005249</v>
+        <v>0.1809804269765098</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1999.440584200624</v>
+        <v>2007.151575741992</v>
       </c>
       <c r="C4" t="n">
-        <v>5884951.971295739</v>
+        <v>5925576.71587164</v>
       </c>
       <c r="D4" t="n">
-        <v>2425.891994977464</v>
+        <v>2434.250750409999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1998326277039338</v>
+        <v>0.1943089470900476</v>
       </c>
     </row>
     <row r="5">
